--- a/3. Excel HUB/Preenchimento de Células/preenchimento automatico e alça.xlsx
+++ b/3. Excel HUB/Preenchimento de Células/preenchimento automatico e alça.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PlenilunoS\Dev Hub\GitHub\my-learning-code-hub\3. Excel HUB\Preenchimento de Células\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4FE56D-7FE5-46F5-B30E-CB4E4307E3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B913D237-D8BF-40D0-B757-C2EFC332203D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="2" r:id="rId1"/>
@@ -102,7 +102,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ao usar a alça de preenchimento, na última célula vai aparecer uma caixinha que você pode escolher se quer preencher o intervalo com uma SÉRIE ou apenas copiando o valor da primeira célula do intervalo</t>
+Ao usar a alça de preenchimento, na última célula vai aparecer uma caixinha que você pode escolher se quer preencher o intervalo com uma SÉRIE ou apenas copiando o valor da primeira célula do intervalo
+Se você escolher copiar o valor, o valor que vai ser copiado será o das células que foram selecionadas antes do preenchimento... pode ser 1 ou pode ser 2</t>
         </r>
       </text>
     </comment>
@@ -150,7 +151,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-- Usamos o atalho CTRL+ENTER para preencher um intervalo com um valor</t>
+- Usamos o atalho CTRL+ENTER para preencher um intervalo com um valor
+para preencher basta selecionar todo o intervalo VAZIO, então escreve qualquer valor e aperta CTRL+ENTER</t>
         </r>
       </text>
     </comment>
@@ -483,20 +485,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E7EB9A-FBA9-4DFB-8B97-80AD0434745D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -796,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,19 +815,18 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="O2" s="4" t="s">
+      <c r="M2" s="4"/>
+      <c r="O2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="4" t="s">
+      <c r="P2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="4"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
@@ -841,21 +841,20 @@
       <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
@@ -879,11 +878,10 @@
       <c r="P4">
         <v>2001</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="1"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
@@ -904,11 +902,10 @@
       <c r="P5">
         <v>2002</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="1"/>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
@@ -929,11 +926,10 @@
       <c r="P6">
         <v>2003</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="1"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
@@ -954,11 +950,10 @@
       <c r="P7">
         <v>2004</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="1"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
@@ -979,11 +974,10 @@
       <c r="P8">
         <v>2005</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="1"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
@@ -1004,11 +998,10 @@
       <c r="P9">
         <v>2006</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="1"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
@@ -1029,11 +1022,10 @@
       <c r="P10">
         <v>2007</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="1"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
@@ -1051,11 +1043,10 @@
       <c r="P11">
         <v>2008</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="1"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
@@ -1073,11 +1064,10 @@
       <c r="P12">
         <v>2009</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S12" s="1"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
@@ -1095,11 +1085,10 @@
       <c r="P13">
         <v>2010</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S13" s="1"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
@@ -1117,11 +1106,10 @@
       <c r="P14">
         <v>2011</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="1"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
@@ -1133,11 +1121,10 @@
       <c r="L15" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="1"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
@@ -1146,17 +1133,16 @@
       <c r="I16" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="1"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
@@ -1299,11 +1285,6 @@
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R11:S11"/>
@@ -1311,6 +1292,11 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
